--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna5-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Efna5</t>
+  </si>
+  <si>
+    <t>Epha2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Efna5</t>
-  </si>
-  <si>
-    <t>Epha2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H2">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J2">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N2">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P2">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q2">
-        <v>2.559034985408333</v>
+        <v>22.50254901669111</v>
       </c>
       <c r="R2">
-        <v>23.031314868675</v>
+        <v>202.52294115022</v>
       </c>
       <c r="S2">
-        <v>0.0271618935097705</v>
+        <v>0.3285345525538358</v>
       </c>
       <c r="T2">
-        <v>0.0271618935097705</v>
+        <v>0.3285345525538358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H3">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J3">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.937095</v>
       </c>
       <c r="O3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P3">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q3">
-        <v>0.072111022075</v>
+        <v>0.9060869429366667</v>
       </c>
       <c r="R3">
-        <v>0.648999198675</v>
+        <v>8.154782486430001</v>
       </c>
       <c r="S3">
-        <v>0.0007653947342065446</v>
+        <v>0.0132287621349816</v>
       </c>
       <c r="T3">
-        <v>0.0007653947342065446</v>
+        <v>0.0132287621349816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.230855</v>
+        <v>2.900731333333333</v>
       </c>
       <c r="H4">
-        <v>0.692565</v>
+        <v>8.702194</v>
       </c>
       <c r="I4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775288</v>
       </c>
       <c r="J4">
-        <v>0.06377305075821572</v>
+        <v>0.8130494232775289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N4">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P4">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q4">
-        <v>3.377178410613333</v>
+        <v>32.28013211080822</v>
       </c>
       <c r="R4">
-        <v>30.39460569552</v>
+        <v>290.521188997274</v>
       </c>
       <c r="S4">
-        <v>0.03584576251423868</v>
+        <v>0.4712861085887113</v>
       </c>
       <c r="T4">
-        <v>0.03584576251423868</v>
+        <v>0.4712861085887114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H5">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I5">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J5">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08503166666667</v>
+        <v>7.757543333333333</v>
       </c>
       <c r="N5">
-        <v>33.255095</v>
+        <v>23.27263</v>
       </c>
       <c r="O5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="P5">
-        <v>0.4259149152633459</v>
+        <v>0.4040769763164727</v>
       </c>
       <c r="Q5">
-        <v>32.15469868649222</v>
+        <v>5.174180555270001</v>
       </c>
       <c r="R5">
-        <v>289.39228817843</v>
+        <v>46.56762499743</v>
       </c>
       <c r="S5">
-        <v>0.3412936933419445</v>
+        <v>0.07554242376263687</v>
       </c>
       <c r="T5">
-        <v>0.3412936933419446</v>
+        <v>0.07554242376263687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H6">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I6">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J6">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.937095</v>
       </c>
       <c r="O6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="P6">
-        <v>0.01200185227312402</v>
+        <v>0.01627055103446774</v>
       </c>
       <c r="Q6">
-        <v>0.9060869429366667</v>
+        <v>0.208343394255</v>
       </c>
       <c r="R6">
-        <v>8.154782486430001</v>
+        <v>1.875090548295</v>
       </c>
       <c r="S6">
-        <v>0.009617311679977746</v>
+        <v>0.003041788899486143</v>
       </c>
       <c r="T6">
-        <v>0.009617311679977746</v>
+        <v>0.003041788899486143</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.900731333333333</v>
+        <v>0.6669870000000001</v>
       </c>
       <c r="H7">
-        <v>8.702194</v>
+        <v>2.000961</v>
       </c>
       <c r="I7">
-        <v>0.8013189515350044</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="J7">
-        <v>0.8013189515350045</v>
+        <v>0.1869505767224711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.62900266666666</v>
+        <v>11.12827366666667</v>
       </c>
       <c r="N7">
-        <v>43.88700799999999</v>
+        <v>33.384821</v>
       </c>
       <c r="O7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490594</v>
       </c>
       <c r="P7">
-        <v>0.5620832324635302</v>
+        <v>0.5796524726490595</v>
       </c>
       <c r="Q7">
-        <v>42.43480641061689</v>
+        <v>7.422413868109001</v>
       </c>
       <c r="R7">
-        <v>381.913257695552</v>
+        <v>66.80172481298101</v>
       </c>
       <c r="S7">
-        <v>0.4504079465130822</v>
+        <v>0.1083663640603481</v>
       </c>
       <c r="T7">
-        <v>0.4504079465130822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.465079</v>
-      </c>
-      <c r="I8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J8">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>11.08503166666667</v>
-      </c>
-      <c r="N8">
-        <v>33.255095</v>
-      </c>
-      <c r="O8">
-        <v>0.4259149152633459</v>
-      </c>
-      <c r="P8">
-        <v>0.4259149152633459</v>
-      </c>
-      <c r="Q8">
-        <v>5.413482369722778</v>
-      </c>
-      <c r="R8">
-        <v>48.721341327505</v>
-      </c>
-      <c r="S8">
-        <v>0.05745932841163078</v>
-      </c>
-      <c r="T8">
-        <v>0.05745932841163078</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.465079</v>
-      </c>
-      <c r="I9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J9">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.312365</v>
-      </c>
-      <c r="N9">
-        <v>0.937095</v>
-      </c>
-      <c r="O9">
-        <v>0.01200185227312402</v>
-      </c>
-      <c r="P9">
-        <v>0.01200185227312402</v>
-      </c>
-      <c r="Q9">
-        <v>0.1525464672783333</v>
-      </c>
-      <c r="R9">
-        <v>1.372918205505</v>
-      </c>
-      <c r="S9">
-        <v>0.001619145858939725</v>
-      </c>
-      <c r="T9">
-        <v>0.001619145858939725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.4883596666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.465079</v>
-      </c>
-      <c r="I10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="J10">
-        <v>0.1349079977067798</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>14.62900266666666</v>
-      </c>
-      <c r="N10">
-        <v>43.88700799999999</v>
-      </c>
-      <c r="O10">
-        <v>0.5620832324635302</v>
-      </c>
-      <c r="P10">
-        <v>0.5620832324635302</v>
-      </c>
-      <c r="Q10">
-        <v>7.144214865959111</v>
-      </c>
-      <c r="R10">
-        <v>64.297933793632</v>
-      </c>
-      <c r="S10">
-        <v>0.07582952343620931</v>
-      </c>
-      <c r="T10">
-        <v>0.07582952343620931</v>
+        <v>0.1083663640603481</v>
       </c>
     </row>
   </sheetData>
